--- a/codigos_deptos_colombia.xlsx
+++ b/codigos_deptos_colombia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camil\Documents\La Mapera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18E70244-6628-40CB-82A2-D1A749E05BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0506DF-65C5-4D9A-9134-1CAE14558E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BC757B98-6C67-45E5-9C08-342478F63956}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>cod_depto</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>VICHADA</t>
+  </si>
+  <si>
+    <t>GUAVIARE</t>
   </si>
 </sst>
 </file>
@@ -487,7 +490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FEE14F2-2B0C-48DE-A048-37CDDCF4E7CD}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -506,7 +509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
@@ -740,7 +743,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
@@ -748,17 +751,25 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
+        <v>97</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>99</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>33</v>
       </c>
     </row>
